--- a/biology/Botanique/Crepis/Crepis.xlsx
+++ b/biology/Botanique/Crepis/Crepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crepis (francisé en Crépis ou Crépides) est un genre de plante à fleurs de la famille des Astéracées (ou Composées).
-Ce genre compte 80 à 120 espèces dont une vingtaine en France[1].
+Ce genre compte 80 à 120 espèces dont une vingtaine en France.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Signe distinctif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les crépides sont des plantes herbacées. Elles se distinguent des autres liguliflores par des bractées de la rangée extérieure qui sont beaucoup plus courtes et ordinairement étalées.
 </t>
@@ -543,7 +557,9 @@
           <t>Espèces en France métropolitaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Crepis acuminata
@@ -596,9 +612,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (31 Jan 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (31 Jan 2011) :
 Crepis acuminata
 Crepis albida
 Crepis alpestris
@@ -681,7 +699,7 @@
 Crepis vesicaria
 Crepis viscidula
 Crepis zacintha
-Selon ITIS      (31 Jan 2011)[3] :
+Selon ITIS      (31 Jan 2011) :
 Crepis acuminata Nutt.
 Crepis atribarba A. Heller
 Crepis bakeri Greene
